--- a/na-service/src/test/resources/func/parser/source/real/Reuters-Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Reuters-Source.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="КорреспонденТ" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Reuters" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/na-service/src/test/resources/func/parser/source/real/Reuters-Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Reuters-Source.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
   <si>
     <t>page</t>
   </si>
@@ -43,7 +43,7 @@
     <t>https://www.reuters.com/world</t>
   </si>
   <si>
-    <t>world,general</t>
+    <t>world</t>
   </si>
   <si>
     <t>en</t>
@@ -52,25 +52,16 @@
     <t>ASIS</t>
   </si>
   <si>
-    <t>story-content:EQUALS</t>
+    <t>StoryCollection__hero___1YMlPw:EQUALS</t>
   </si>
   <si>
-    <t>h3:HTML_TAG</t>
+    <t>MediaStoryCard__title___2PHMeX:EQUALS</t>
   </si>
   <si>
     <t>a:HTML_TAG</t>
   </si>
   <si>
-    <t>video-heading:EQUALS</t>
-  </si>
-  <si>
-    <t>US Politics</t>
-  </si>
-  <si>
-    <t>https://www.reuters.com/world/us-politics</t>
-  </si>
-  <si>
-    <t>usa,politics</t>
+    <t>StoryCollection__story___3EY8PG:EQUALS</t>
   </si>
   <si>
     <t>USA</t>
@@ -79,7 +70,7 @@
     <t>https://www.reuters.com/world/us</t>
   </si>
   <si>
-    <t>usa,general</t>
+    <t>usa</t>
   </si>
   <si>
     <t>UK</t>
@@ -88,7 +79,7 @@
     <t>https://www.reuters.com/world/uk</t>
   </si>
   <si>
-    <t>uk,general</t>
+    <t>uk</t>
   </si>
   <si>
     <t>Europe</t>
@@ -97,16 +88,25 @@
     <t>https://www.reuters.com/world/europe</t>
   </si>
   <si>
-    <t>europe,general</t>
+    <t>europe</t>
   </si>
   <si>
-    <t>MidleEastAfrica</t>
+    <t>MiddleEast</t>
   </si>
   <si>
-    <t>https://www.reuters.com/world/middle-east-africa</t>
+    <t>https://www.reuters.com/world/middle-east</t>
   </si>
   <si>
-    <t>MiddleEast,africa,general</t>
+    <t>middleeast</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/world/africa</t>
+  </si>
+  <si>
+    <t>africa</t>
   </si>
   <si>
     <t>China</t>
@@ -115,7 +115,7 @@
     <t>https://www.reuters.com/world/china</t>
   </si>
   <si>
-    <t>china,general</t>
+    <t>china</t>
   </si>
   <si>
     <t>India</t>
@@ -124,7 +124,7 @@
     <t>https://www.reuters.com/world/india</t>
   </si>
   <si>
-    <t>india,general</t>
+    <t>india</t>
   </si>
   <si>
     <t>America</t>
@@ -133,16 +133,13 @@
     <t>https://www.reuters.com/world/americas</t>
   </si>
   <si>
-    <t>America,general</t>
-  </si>
-  <si>
     <t>SE Asia</t>
   </si>
   <si>
     <t>https://www.reuters.com/world/asia-pacific</t>
   </si>
   <si>
-    <t>se-asia,general</t>
+    <t>se-asia</t>
   </si>
   <si>
     <t>Business</t>
@@ -199,6 +196,12 @@
     <t>business,education</t>
   </si>
   <si>
+    <t>story-content:EQUALS</t>
+  </si>
+  <si>
+    <t>h3:HTML_TAG</t>
+  </si>
+  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -235,7 +238,7 @@
     <t>https://www.reuters.com/markets</t>
   </si>
   <si>
-    <t>US</t>
+    <t>USMarkets</t>
   </si>
   <si>
     <t>https://www.reuters.com/markets/us</t>
@@ -244,13 +247,16 @@
     <t>USA,Markets</t>
   </si>
   <si>
+    <t>EuropeMarkets</t>
+  </si>
+  <si>
     <t>https://www.reuters.com/markets/europe</t>
   </si>
   <si>
     <t>Europe,Markets</t>
   </si>
   <si>
-    <t>Markets Asia</t>
+    <t xml:space="preserve">AsiaMarkets </t>
   </si>
   <si>
     <t>https://www.reuters.com/markets/asia</t>
@@ -309,12 +315,18 @@
   <si>
     <t>Photo</t>
   </si>
+  <si>
+    <t>photo-heading:EQUALS</t>
+  </si>
+  <si>
+    <t>video-heading:EQUALS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -330,9 +342,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF000000"/>
     </font>
@@ -341,7 +350,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -377,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -388,20 +408,26 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -622,8 +648,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="51.29"/>
     <col customWidth="1" min="3" max="3" width="20.0"/>
-    <col customWidth="1" min="5" max="5" width="20.86"/>
-    <col customWidth="1" min="6" max="6" width="23.29"/>
+    <col customWidth="1" min="5" max="5" width="41.57"/>
+    <col customWidth="1" min="6" max="6" width="36.57"/>
     <col customWidth="1" min="7" max="7" width="21.0"/>
   </cols>
   <sheetData>
@@ -690,7 +716,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="3"/>
@@ -716,17 +742,17 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -781,20 +807,20 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="3"/>
@@ -816,21 +842,21 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -850,19 +876,19 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -885,20 +911,22 @@
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -918,21 +946,21 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -956,15 +984,15 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -987,20 +1015,22 @@
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1020,21 +1050,21 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1054,19 +1084,19 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1086,23 +1116,25 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1122,21 +1154,21 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1158,17 +1190,17 @@
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1194,17 +1226,19 @@
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1228,17 +1262,17 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1261,117 +1295,119 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1394,20 +1430,22 @@
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1431,17 +1469,17 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1465,15 +1503,15 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1496,20 +1534,22 @@
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1533,17 +1573,17 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1567,15 +1607,15 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1596,22 +1636,24 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1635,17 +1677,17 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1669,15 +1711,15 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1698,22 +1740,24 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>44</v>
+      <c r="C32" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1737,17 +1781,17 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1771,15 +1815,15 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1800,22 +1844,24 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>44</v>
+      <c r="C35" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1839,17 +1885,17 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1873,15 +1919,15 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1902,22 +1948,24 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>44</v>
+      <c r="C38" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1941,17 +1989,17 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1975,15 +2023,15 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2004,22 +2052,24 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2043,17 +2093,17 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2077,15 +2127,15 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2106,22 +2156,24 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2145,17 +2197,17 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2178,15 +2230,15 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2207,22 +2259,24 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2246,17 +2300,17 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2280,15 +2334,15 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2309,22 +2363,24 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2348,17 +2404,17 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2378,18 +2434,25 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2409,23 +2472,21 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2445,21 +2506,19 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2479,19 +2538,25 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2511,23 +2576,21 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2547,21 +2610,19 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2581,19 +2642,25 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="A58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2613,23 +2680,21 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2649,21 +2714,19 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2683,19 +2746,25 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2715,23 +2784,20 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2751,20 +2817,19 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2784,19 +2849,25 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="A64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -2816,23 +2887,21 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2852,21 +2921,25 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="A66" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -2890,15 +2963,17 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="4" t="s">
+      <c r="E67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2918,23 +2993,25 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>75</v>
+      <c r="A68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -2954,21 +3031,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -2988,19 +3065,25 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="A70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -3020,23 +3103,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3056,21 +3137,25 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="A72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -3092,16 +3177,19 @@
     <row r="73">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="4" t="s">
+      <c r="E73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3121,23 +3209,19 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3157,21 +3241,25 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3195,15 +3283,17 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="4" t="s">
+      <c r="E76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -3223,23 +3313,19 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3259,21 +3345,25 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3293,19 +3383,21 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="4" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3325,23 +3417,19 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3361,21 +3449,25 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="A81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3395,19 +3487,21 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="4" t="s">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3427,23 +3521,19 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3463,21 +3553,25 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -3497,19 +3591,21 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="4" t="s">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3529,23 +3625,19 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="9"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -3565,21 +3657,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="A87" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -3599,19 +3695,21 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="4" t="s">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -3631,23 +3729,19 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -3667,21 +3761,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -3701,19 +3797,19 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="4" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -3733,23 +3829,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3769,21 +3861,15 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -3803,19 +3889,15 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3835,23 +3917,15 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3871,21 +3945,15 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -3905,19 +3973,15 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -3937,15 +4001,15 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -3965,15 +4029,15 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -3993,15 +4057,15 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -4021,15 +4085,15 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -4049,15 +4113,15 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -4077,15 +4141,15 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -4105,15 +4169,15 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -4133,15 +4197,15 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -4161,15 +4225,15 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -4189,15 +4253,15 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -4217,15 +4281,15 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="4"/>
+      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -4245,15 +4309,15 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -4273,15 +4337,15 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
+      <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -4301,15 +4365,15 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -4329,15 +4393,15 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="4"/>
+      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -4357,15 +4421,15 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -4385,15 +4449,15 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="4"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -4413,15 +4477,15 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -4441,15 +4505,15 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="4"/>
+      <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -4469,15 +4533,15 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -4497,15 +4561,15 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="4"/>
+      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -4525,15 +4589,15 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -4553,15 +4617,15 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="4"/>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -4581,15 +4645,15 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -4609,15 +4673,15 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="4"/>
+      <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -4637,15 +4701,15 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -4665,15 +4729,15 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="4"/>
+      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -4693,15 +4757,15 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
+      <c r="I125" s="4"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -4721,15 +4785,15 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="4"/>
+      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -4749,15 +4813,15 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -4777,15 +4841,15 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="4"/>
+      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -4805,15 +4869,15 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -4833,15 +4897,15 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="4"/>
+      <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -4861,15 +4925,15 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -4889,15 +4953,15 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="4"/>
+      <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -4917,15 +4981,14 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -4945,15 +5008,15 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="4"/>
+      <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -4973,15 +5036,15 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -5001,15 +5064,15 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="3"/>
-      <c r="I136" s="4"/>
+      <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -5029,15 +5092,15 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -5057,14 +5120,15 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="4"/>
+      <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -5084,15 +5148,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5112,15 +5176,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="4"/>
+      <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5140,15 +5204,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5168,15 +5232,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="4"/>
+      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -5196,15 +5260,15 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -5224,15 +5288,15 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="4"/>
+      <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -5256,11 +5320,11 @@
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
+      <c r="I145" s="4"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -5280,15 +5344,15 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="4"/>
+      <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -5312,9 +5376,9 @@
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -5336,15 +5400,15 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="4"/>
+      <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -5368,9 +5432,9 @@
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -5400,7 +5464,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="6"/>
+      <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -28603,146 +28667,6 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="3"/>
-      <c r="J979" s="3"/>
-      <c r="K979" s="3"/>
-      <c r="L979" s="3"/>
-      <c r="M979" s="3"/>
-      <c r="N979" s="3"/>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
-      <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
-      <c r="U979" s="3"/>
-      <c r="V979" s="3"/>
-      <c r="W979" s="3"/>
-      <c r="X979" s="3"/>
-      <c r="Y979" s="3"/>
-      <c r="Z979" s="3"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="3"/>
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-      <c r="E980" s="3"/>
-      <c r="F980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
-      <c r="I980" s="3"/>
-      <c r="J980" s="3"/>
-      <c r="K980" s="3"/>
-      <c r="L980" s="3"/>
-      <c r="M980" s="3"/>
-      <c r="N980" s="3"/>
-      <c r="O980" s="3"/>
-      <c r="P980" s="3"/>
-      <c r="Q980" s="3"/>
-      <c r="R980" s="3"/>
-      <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
-      <c r="U980" s="3"/>
-      <c r="V980" s="3"/>
-      <c r="W980" s="3"/>
-      <c r="X980" s="3"/>
-      <c r="Y980" s="3"/>
-      <c r="Z980" s="3"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="3"/>
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-      <c r="E981" s="3"/>
-      <c r="F981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
-      <c r="I981" s="3"/>
-      <c r="J981" s="3"/>
-      <c r="K981" s="3"/>
-      <c r="L981" s="3"/>
-      <c r="M981" s="3"/>
-      <c r="N981" s="3"/>
-      <c r="O981" s="3"/>
-      <c r="P981" s="3"/>
-      <c r="Q981" s="3"/>
-      <c r="R981" s="3"/>
-      <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
-      <c r="U981" s="3"/>
-      <c r="V981" s="3"/>
-      <c r="W981" s="3"/>
-      <c r="X981" s="3"/>
-      <c r="Y981" s="3"/>
-      <c r="Z981" s="3"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="3"/>
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-      <c r="E982" s="3"/>
-      <c r="F982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
-      <c r="I982" s="3"/>
-      <c r="J982" s="3"/>
-      <c r="K982" s="3"/>
-      <c r="L982" s="3"/>
-      <c r="M982" s="3"/>
-      <c r="N982" s="3"/>
-      <c r="O982" s="3"/>
-      <c r="P982" s="3"/>
-      <c r="Q982" s="3"/>
-      <c r="R982" s="3"/>
-      <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
-      <c r="U982" s="3"/>
-      <c r="V982" s="3"/>
-      <c r="W982" s="3"/>
-      <c r="X982" s="3"/>
-      <c r="Y982" s="3"/>
-      <c r="Z982" s="3"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="3"/>
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-      <c r="E983" s="3"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="3"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="3"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="3"/>
-      <c r="O983" s="3"/>
-      <c r="P983" s="3"/>
-      <c r="Q983" s="3"/>
-      <c r="R983" s="3"/>
-      <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
-      <c r="U983" s="3"/>
-      <c r="V983" s="3"/>
-      <c r="W983" s="3"/>
-      <c r="X983" s="3"/>
-      <c r="Y983" s="3"/>
-      <c r="Z983" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -28762,21 +28686,21 @@
     <hyperlink r:id="rId15" ref="B44"/>
     <hyperlink r:id="rId16" ref="B47"/>
     <hyperlink r:id="rId17" ref="B50"/>
-    <hyperlink r:id="rId18" ref="B53"/>
-    <hyperlink r:id="rId19" ref="B56"/>
-    <hyperlink r:id="rId20" ref="B59"/>
-    <hyperlink r:id="rId21" ref="B62"/>
-    <hyperlink r:id="rId22" ref="B65"/>
-    <hyperlink r:id="rId23" ref="B68"/>
-    <hyperlink r:id="rId24" ref="B71"/>
-    <hyperlink r:id="rId25" ref="B74"/>
-    <hyperlink r:id="rId26" ref="B77"/>
-    <hyperlink r:id="rId27" ref="B80"/>
-    <hyperlink r:id="rId28" ref="B83"/>
-    <hyperlink r:id="rId29" ref="B86"/>
-    <hyperlink r:id="rId30" ref="B89"/>
-    <hyperlink r:id="rId31" ref="B92"/>
-    <hyperlink r:id="rId32" ref="B95"/>
+    <hyperlink r:id="rId18" ref="B52"/>
+    <hyperlink r:id="rId19" ref="B55"/>
+    <hyperlink r:id="rId20" ref="B58"/>
+    <hyperlink r:id="rId21" ref="B61"/>
+    <hyperlink r:id="rId22" ref="B64"/>
+    <hyperlink r:id="rId23" ref="B66"/>
+    <hyperlink r:id="rId24" ref="B68"/>
+    <hyperlink r:id="rId25" ref="B70"/>
+    <hyperlink r:id="rId26" ref="B72"/>
+    <hyperlink r:id="rId27" ref="B75"/>
+    <hyperlink r:id="rId28" ref="B78"/>
+    <hyperlink r:id="rId29" ref="B81"/>
+    <hyperlink r:id="rId30" ref="B84"/>
+    <hyperlink r:id="rId31" ref="B87"/>
+    <hyperlink r:id="rId32" ref="B90"/>
   </hyperlinks>
   <drawing r:id="rId33"/>
 </worksheet>
